--- a/AP110_TestData_PaymentProcessRequest_21C_ProcessPPR.xlsx
+++ b/AP110_TestData_PaymentProcessRequest_21C_ProcessPPR.xlsx
@@ -1,90 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEF929-D269-4B7C-A5B8-E82C6D7B297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Output_Value" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raj Divekar</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Raj Divekar:
+Run Script Script_AP110_PaymentProcessRequest_SubmitPPR_21A.xlsx so that PaymentName is created. Use that in this field.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>LowExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>PaymentName</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TEST_PPR_RD002</t>
+  </si>
+  <si>
+    <t>https://edrx.fa.us2.oraclecloud.com</t>
+  </si>
+  <si>
+    <t>IBM_IMPLEMENTATION_USER</t>
+  </si>
+  <si>
+    <t>Oracle1234</t>
+  </si>
+  <si>
+    <t>FedExUKPayqcn012</t>
+  </si>
+  <si>
+    <t>InstallmentCount</t>
+  </si>
+  <si>
+    <t>UnpaidAmount</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,47 +236,47 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal 67" xfId="2"/>
-    <cellStyle name="Normal 72" xfId="3"/>
+    <cellStyle name="Normal 67" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 72" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -223,23 +321,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <t>Raj Divekar:
-Run Script Script_AP110_PaymentProcessRequest_SubmitPPR_21A.xlsx so that PaymentName is created. Use that in this field.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,268 +628,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.81640625" customWidth="1" style="10" min="1" max="1"/>
-    <col width="8.7265625" customWidth="1" style="10" min="2" max="7"/>
-    <col width="16.81640625" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
-    <col width="17.453125" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
-    <col width="8.7265625" customWidth="1" style="10" min="10" max="10"/>
-    <col collapsed="1" width="31.36328125" bestFit="1" customWidth="1" style="10" min="11" max="11"/>
-    <col collapsed="1" width="26.26953125" bestFit="1" customWidth="1" style="10" min="12" max="12"/>
-    <col collapsed="1" width="10.1796875" bestFit="1" customWidth="1" style="10" min="13" max="13"/>
-    <col width="8.7265625" customWidth="1" style="10" min="14" max="16384"/>
+    <col min="1" max="7" width="8.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.21875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.21875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.77734375" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customFormat="1" customHeight="1" s="18">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>LowWait</t>
-        </is>
-      </c>
-      <c r="B1" s="15" t="inlineStr">
-        <is>
-          <t>MediumWait</t>
-        </is>
-      </c>
-      <c r="C1" s="16" t="inlineStr">
-        <is>
-          <t>HighWait</t>
-        </is>
-      </c>
-      <c r="D1" s="17" t="inlineStr">
-        <is>
-          <t>HighestWait</t>
-        </is>
-      </c>
-      <c r="E1" s="14" t="inlineStr">
-        <is>
-          <t>LowExplicitWait</t>
-        </is>
-      </c>
-      <c r="F1" s="15" t="inlineStr">
-        <is>
-          <t>MediumExplicitWait</t>
-        </is>
-      </c>
-      <c r="G1" s="16" t="inlineStr">
-        <is>
-          <t>LongExplicitWait</t>
-        </is>
-      </c>
-      <c r="H1" s="17" t="inlineStr">
-        <is>
-          <t>HighestExplicitWait</t>
-        </is>
-      </c>
-      <c r="I1" s="8" t="inlineStr">
-        <is>
-          <t>PaymentName</t>
-        </is>
-      </c>
-      <c r="K1" s="9" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t>UserName</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="12">
-      <c r="A2" s="10" t="n">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="10">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="10">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>50</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="10">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="10">
         <v>30</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="10">
         <v>60</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="10">
         <v>120</v>
       </c>
-      <c r="I2" s="11" t="inlineStr">
-        <is>
-          <t>TEST_PPR_RD002</t>
-        </is>
-      </c>
-      <c r="K2" s="13" t="inlineStr">
-        <is>
-          <t>https://edrx.fa.us2.oraclecloud.com</t>
-        </is>
-      </c>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>IBM_IMPLEMENTATION_USER</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>Oracle1234</t>
-        </is>
-      </c>
+      <c r="I2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" priority="22" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:XFD1">
-    <cfRule type="duplicateValues" priority="38" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="38"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>UserName</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>PaymentName</t>
-        </is>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>https://edrx.fa.us2.oraclecloud.com</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>IBM_IMPLEMENTATION_USER</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Oracle1234</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FedExUKPayqcn012</t>
-        </is>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" priority="1" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:XFD1 A1:C1">
-    <cfRule type="duplicateValues" priority="2" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="1" width="17" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col collapsed="1" width="11.1796875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col collapsed="1" width="15.26953125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.6328125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>InstallmentCount</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UnpaidAmount</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
